--- a/output/1Y_P34_1VAL-D.xlsx
+++ b/output/1Y_P34_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>694.03</v>
       </c>
-      <c r="G2" s="1">
-        <v>694.03</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.156000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.4086</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.156000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E3" s="1">
+        <v>694.03</v>
+      </c>
       <c r="F3" s="1">
         <v>669.6219</v>
       </c>
-      <c r="G3" s="1">
-        <v>1363.6519</v>
-      </c>
       <c r="H3" s="1">
-        <v>20258.8215</v>
+        <v>10310.7172</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.6665</v>
+        <v>10310.7172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.4086</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20258.8215</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0156</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E4" s="1">
+        <v>1363.6519</v>
+      </c>
       <c r="F4" s="1">
         <v>627.6952</v>
       </c>
-      <c r="G4" s="1">
-        <v>1991.3471</v>
-      </c>
       <c r="H4" s="1">
-        <v>31560.262</v>
+        <v>21612.1096</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.0652</v>
+        <v>21612.1096</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.6665</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31560.262</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.043</v>
+        <v>0.0641</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E5" s="1">
+        <v>1991.3471</v>
+      </c>
       <c r="F5" s="1">
         <v>587.5199</v>
       </c>
-      <c r="G5" s="1">
-        <v>2578.867</v>
-      </c>
       <c r="H5" s="1">
-        <v>43666.4068</v>
+        <v>33718.2848</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.5107</v>
+        <v>33718.2848</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.0652</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43666.4068</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0507</v>
+        <v>0.06660000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E6" s="1">
+        <v>2578.867</v>
+      </c>
       <c r="F6" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G6" s="1">
-        <v>3151.5784</v>
-      </c>
       <c r="H6" s="1">
-        <v>54743.5471</v>
+        <v>44795.4348</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.8651</v>
+        <v>44795.4348</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.5107</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54743.5471</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0201</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.886</v>
       </c>
+      <c r="E7" s="1">
+        <v>3151.5784</v>
+      </c>
       <c r="F7" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G7" s="1">
-        <v>3743.785</v>
-      </c>
       <c r="H7" s="1">
-        <v>62889.9717</v>
+        <v>52941.7897</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.0266</v>
+        <v>52941.7897</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8651</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62889.9717</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0286</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.59</v>
       </c>
+      <c r="E8" s="1">
+        <v>3743.785</v>
+      </c>
       <c r="F8" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G8" s="1">
-        <v>4312.2898</v>
-      </c>
       <c r="H8" s="1">
-        <v>75459.89659999999</v>
+        <v>65511.7443</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.2327</v>
+        <v>65511.7443</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.0266</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75459.89659999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0353</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E9" s="1">
+        <v>4312.2898</v>
+      </c>
       <c r="F9" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G9" s="1">
-        <v>4978.4191</v>
-      </c>
       <c r="H9" s="1">
-        <v>74348.7068</v>
+        <v>64400.5982</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.0694</v>
+        <v>64400.5982</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>16.2327</v>
+      </c>
+      <c r="M9" s="1">
         <v>3.57</v>
       </c>
-      <c r="L9" s="1">
-        <v>13855.3871</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>3855.3871</v>
+        <v>12028.7811</v>
       </c>
       <c r="O9" s="1">
-        <v>13855.3871</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>88204.09390000001</v>
+        <v>2028.7811</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0321</v>
+        <v>-0.1471</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E10" s="1">
+        <v>4978.4191</v>
+      </c>
       <c r="F10" s="1">
-        <v>876.2958</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5854.7149</v>
+        <v>846.5746</v>
       </c>
       <c r="H10" s="1">
-        <v>89488.1465</v>
+        <v>76094.14049999999</v>
       </c>
       <c r="I10" s="1">
-        <v>93463.8468</v>
+        <v>12028.7811</v>
       </c>
       <c r="J10" s="1">
-        <v>15.9639</v>
+        <v>88122.9216</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83007.19530000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.6734</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-13463.8468</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>10391.5403</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>99879.6868</v>
+        <v>-13007.1953</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0171</v>
+        <v>0.1844</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E11" s="1">
+        <v>5824.9937</v>
+      </c>
       <c r="F11" s="1">
-        <v>816.2232</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6670.9381</v>
+        <v>788.5395</v>
       </c>
       <c r="H11" s="1">
-        <v>109468.0934</v>
+        <v>95586.3992</v>
       </c>
       <c r="I11" s="1">
-        <v>106927.6936</v>
+        <v>9021.585800000001</v>
       </c>
       <c r="J11" s="1">
-        <v>16.0289</v>
+        <v>104607.985</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>96014.39049999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.4832</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-13463.8468</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>6927.6936</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>116395.7869</v>
+        <v>-13007.1953</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0593</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E12" s="1">
+        <v>6613.5332</v>
+      </c>
       <c r="F12" s="1">
-        <v>793.3864</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7464.3245</v>
+        <v>766.4772</v>
       </c>
       <c r="H12" s="1">
-        <v>126013.4733</v>
+        <v>111650.3286</v>
       </c>
       <c r="I12" s="1">
-        <v>120391.5403</v>
+        <v>6014.3905</v>
       </c>
       <c r="J12" s="1">
-        <v>16.1289</v>
+        <v>117664.7191</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>109021.5858</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.4846</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-13463.8468</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>3463.8468</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>129477.3201</v>
+        <v>-13007.1953</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0244</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E13" s="1">
+        <v>7380.0104</v>
+      </c>
       <c r="F13" s="1">
-        <v>748.3865</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8212.710999999999</v>
+        <v>723.0035</v>
       </c>
       <c r="H13" s="1">
-        <v>146984.5315</v>
+        <v>132081.5224</v>
       </c>
       <c r="I13" s="1">
-        <v>133855.3871</v>
+        <v>3007.1953</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2986</v>
+        <v>135088.7177</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>122028.7811</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.535</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-13463.8468</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>146984.5315</v>
+        <v>-13007.1953</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0538</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E14" s="1">
+        <v>8103.014</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8212.710999999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7380.0104</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>147007.3102</v>
       </c>
       <c r="I14" s="1">
-        <v>133855.3871</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2986</v>
+        <v>147007.3102</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>122028.7811</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0597</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>148997.4669</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>148997.4669</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>148997.4669</v>
+        <v>133890.363</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0509</v>
+        <v>0.0132</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.4086</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>694.03</v>
       </c>
       <c r="G2" s="1">
-        <v>694.03</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.156000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.4086</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.156000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.9338</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>694.03</v>
       </c>
       <c r="F3" s="1">
         <v>652.2003</v>
       </c>
       <c r="G3" s="1">
-        <v>1346.2302</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10310.7172</v>
       </c>
       <c r="I3" s="1">
-        <v>19739.8283</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.663</v>
+        <v>10310.7172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9739.828299999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0337</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9739.828299999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>260.1717</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20260.1717</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0156</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.9313</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1346.2302</v>
       </c>
       <c r="F4" s="1">
         <v>546.6695</v>
       </c>
       <c r="G4" s="1">
-        <v>1892.8997</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21335.9989</v>
       </c>
       <c r="I4" s="1">
-        <v>28448.9843</v>
+        <v>260.1717</v>
       </c>
       <c r="J4" s="1">
-        <v>15.0293</v>
+        <v>21596.1706</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18448.9843</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.7042</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8709.156000000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1551.0157</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31551.0157</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0427</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.0207</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1892.8997</v>
       </c>
       <c r="F5" s="1">
         <v>469.4352</v>
       </c>
       <c r="G5" s="1">
-        <v>2362.3349</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>32051.3354</v>
       </c>
       <c r="I5" s="1">
-        <v>36439.1</v>
+        <v>1551.0157</v>
       </c>
       <c r="J5" s="1">
-        <v>15.425</v>
+        <v>33602.3511</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26439.1</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9675</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7990.1157</v>
       </c>
-      <c r="O5" s="1">
-        <v>3560.9</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43560.9</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0484</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.4608</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2362.3349</v>
       </c>
       <c r="F6" s="1">
         <v>516.1581</v>
       </c>
       <c r="G6" s="1">
-        <v>2878.4931</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41034.2302</v>
       </c>
       <c r="I6" s="1">
-        <v>45451.6337</v>
+        <v>3560.9</v>
       </c>
       <c r="J6" s="1">
-        <v>15.7901</v>
+        <v>44595.1302</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35451.6337</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.007</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9012.5337</v>
       </c>
-      <c r="O6" s="1">
-        <v>4548.3663</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54548.3663</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0184</v>
+        <v>0.0228</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.886</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2878.4931</v>
       </c>
       <c r="F7" s="1">
         <v>693.2544</v>
       </c>
       <c r="G7" s="1">
-        <v>3571.7475</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>48354.3655</v>
       </c>
       <c r="I7" s="1">
-        <v>57157.928</v>
+        <v>4548.3663</v>
       </c>
       <c r="J7" s="1">
-        <v>16.0028</v>
+        <v>52902.7318</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47157.928</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.3829</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11706.2942</v>
       </c>
-      <c r="O7" s="1">
-        <v>2842.072</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62842.072</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0264</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.59</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3571.7475</v>
       </c>
       <c r="F8" s="1">
         <v>428.5268</v>
       </c>
       <c r="G8" s="1">
-        <v>4000.2743</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62501.2948</v>
       </c>
       <c r="I8" s="1">
-        <v>64695.7149</v>
+        <v>2842.072</v>
       </c>
       <c r="J8" s="1">
-        <v>16.1728</v>
+        <v>65343.3668</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54695.7149</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.3134</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7537.7869</v>
       </c>
-      <c r="O8" s="1">
-        <v>5304.2851</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75304.28509999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0338</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.0121</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4000.2743</v>
       </c>
       <c r="F9" s="1">
         <v>1019.4633</v>
       </c>
       <c r="G9" s="1">
-        <v>5019.7376</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>74965.76549999999</v>
+        <v>59740.8965</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>5304.2851</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9371</v>
+        <v>65045.1817</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M9" s="1">
         <v>3.57</v>
       </c>
-      <c r="L9" s="1">
-        <v>12852.8813</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-2451.4038</v>
+        <v>11476.0246</v>
       </c>
       <c r="O9" s="1">
-        <v>12852.8813</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87818.6468</v>
+        <v>-3828.2605</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0295</v>
+        <v>-0.1367</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.3645</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5019.7376</v>
       </c>
       <c r="F10" s="1">
         <v>868.465</v>
       </c>
       <c r="G10" s="1">
-        <v>5888.2027</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>76725.68550000001</v>
       </c>
       <c r="I10" s="1">
-        <v>93343.5312</v>
+        <v>11476.0246</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8526</v>
+        <v>88201.7101</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83343.5312</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.6032</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-13343.5312</v>
       </c>
-      <c r="O10" s="1">
-        <v>9509.350200000001</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99509.3502</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0173</v>
+        <v>0.1753</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.4953</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5888.2027</v>
       </c>
       <c r="F11" s="1">
         <v>205.754</v>
       </c>
       <c r="G11" s="1">
-        <v>6093.9566</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>96623.63920000001</v>
       </c>
       <c r="I11" s="1">
-        <v>96737.5045</v>
+        <v>8132.4935</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8743</v>
+        <v>104756.1326</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86737.5045</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.7307</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-3393.9734</v>
       </c>
-      <c r="O11" s="1">
-        <v>16115.3768</v>
-      </c>
-      <c r="P11" s="1">
-        <v>116115.3768</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0603</v>
+        <v>0.0667</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.9701</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6093.9566</v>
       </c>
       <c r="F12" s="1">
         <v>421.8204</v>
       </c>
       <c r="G12" s="1">
-        <v>6515.7771</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>102878.7851</v>
       </c>
       <c r="I12" s="1">
-        <v>103895.8396</v>
+        <v>14738.5201</v>
       </c>
       <c r="J12" s="1">
-        <v>15.9453</v>
+        <v>117617.3052</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93895.83960000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.408</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7158.3351</v>
       </c>
-      <c r="O12" s="1">
-        <v>18957.0417</v>
-      </c>
-      <c r="P12" s="1">
-        <v>128957.0417</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0225</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.9905</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6515.7771</v>
       </c>
       <c r="F13" s="1">
         <v>189.1824</v>
       </c>
       <c r="G13" s="1">
-        <v>6704.9594</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>116614.1653</v>
       </c>
       <c r="I13" s="1">
-        <v>107299.3251</v>
+        <v>17580.185</v>
       </c>
       <c r="J13" s="1">
-        <v>16.003</v>
+        <v>134194.3503</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>97299.3251</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.9329</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3403.4854</v>
       </c>
-      <c r="O13" s="1">
-        <v>25553.5563</v>
-      </c>
-      <c r="P13" s="1">
-        <v>145553.5563</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0475</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.2369</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6704.9594</v>
       </c>
       <c r="F14" s="1">
         <v>-6704.9594</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121643.3856</v>
       </c>
       <c r="I14" s="1">
-        <v>107299.3251</v>
+        <v>24176.6996</v>
       </c>
       <c r="J14" s="1">
-        <v>16.003</v>
+        <v>145820.0851</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>97299.3251</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5115</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121643.3856</v>
       </c>
-      <c r="O14" s="1">
-        <v>147196.9418</v>
-      </c>
-      <c r="P14" s="1">
-        <v>147196.9418</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0537</v>
+        <v>0.0113</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.4086</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>694.03</v>
       </c>
       <c r="G2" s="1">
-        <v>694.03</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.156000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.4086</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.156000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.9338</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>694.03</v>
       </c>
       <c r="F3" s="1">
         <v>655.5658</v>
       </c>
       <c r="G3" s="1">
-        <v>1349.5958</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10310.7172</v>
       </c>
       <c r="I3" s="1">
-        <v>19790.0891</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.6637</v>
+        <v>10310.7172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9790.089099999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.1061</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9790.089099999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>209.9109</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20259.9109</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0156</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.9313</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1349.5958</v>
       </c>
       <c r="F4" s="1">
         <v>552.7842000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1902.38</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21389.3389</v>
       </c>
       <c r="I4" s="1">
-        <v>28596.6603</v>
+        <v>209.9109</v>
       </c>
       <c r="J4" s="1">
-        <v>15.032</v>
+        <v>21599.2497</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18596.6603</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.7794</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8806.571099999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1403.3397</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31553.5897</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0428</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.0207</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1902.38</v>
       </c>
       <c r="F5" s="1">
         <v>477.7316</v>
       </c>
       <c r="G5" s="1">
-        <v>2380.1116</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>32211.8592</v>
       </c>
       <c r="I5" s="1">
-        <v>36727.986</v>
+        <v>1403.3397</v>
       </c>
       <c r="J5" s="1">
-        <v>15.4312</v>
+        <v>33615.199</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26727.986</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.0498</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8131.3257</v>
       </c>
-      <c r="O5" s="1">
-        <v>3272.014</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43573.0153</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0486</v>
+        <v>0.0638</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.4608</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2380.1116</v>
       </c>
       <c r="F6" s="1">
         <v>527.3107</v>
       </c>
       <c r="G6" s="1">
-        <v>2907.4223</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41343.0141</v>
       </c>
       <c r="I6" s="1">
-        <v>45935.2525</v>
+        <v>3272.014</v>
       </c>
       <c r="J6" s="1">
-        <v>15.7993</v>
+        <v>44615.0281</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35935.2525</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.0981</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9207.2665</v>
       </c>
-      <c r="O6" s="1">
-        <v>4064.7475</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54567.2538</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0186</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.886</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2907.4223</v>
       </c>
       <c r="F7" s="1">
         <v>709.2708</v>
       </c>
       <c r="G7" s="1">
-        <v>3616.6931</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>48840.3329</v>
       </c>
       <c r="I7" s="1">
-        <v>57911.9995</v>
+        <v>4064.7475</v>
       </c>
       <c r="J7" s="1">
-        <v>16.0124</v>
+        <v>52905.0805</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47911.9995</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.4792</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11976.747</v>
       </c>
-      <c r="O7" s="1">
-        <v>2088.0005</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62843.0193</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0267</v>
+        <v>-0.0313</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.59</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3616.6931</v>
       </c>
       <c r="F8" s="1">
         <v>444.0879</v>
       </c>
       <c r="G8" s="1">
-        <v>4060.781</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63287.789</v>
       </c>
       <c r="I8" s="1">
-        <v>65723.5053</v>
+        <v>2088.0005</v>
       </c>
       <c r="J8" s="1">
-        <v>16.1849</v>
+        <v>65375.7894</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55723.5053</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.4073</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7811.5057</v>
       </c>
-      <c r="O8" s="1">
-        <v>4276.4947</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75335.2886</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0342</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.0121</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4060.781</v>
       </c>
       <c r="F9" s="1">
         <v>950.9992</v>
       </c>
       <c r="G9" s="1">
-        <v>5011.7801</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>74846.92690000001</v>
+        <v>60644.515</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>4276.4947</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9624</v>
+        <v>64921.0098</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>17.2381</v>
+      </c>
+      <c r="M9" s="1">
         <v>3.57</v>
       </c>
-      <c r="L9" s="1">
-        <v>13047.2892</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-1229.2055</v>
+        <v>11620.4349</v>
       </c>
       <c r="O9" s="1">
-        <v>13047.2892</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87894.21610000001</v>
+        <v>-2656.0598</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.03</v>
+        <v>-0.1387</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.3645</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5011.7801</v>
       </c>
       <c r="F10" s="1">
         <v>995.5708</v>
       </c>
       <c r="G10" s="1">
-        <v>6007.351</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>76604.057</v>
       </c>
       <c r="I10" s="1">
-        <v>95296.4482</v>
+        <v>11620.4349</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8633</v>
+        <v>88224.49189999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>85296.4482</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0192</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-15296.4482</v>
       </c>
-      <c r="O10" s="1">
-        <v>7750.841</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99571.9993</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0171</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.4953</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6007.351</v>
       </c>
       <c r="F11" s="1">
         <v>225.5639</v>
       </c>
       <c r="G11" s="1">
-        <v>6232.9149</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>98578.82739999999</v>
       </c>
       <c r="I11" s="1">
-        <v>99017.19319999999</v>
+        <v>6323.9866</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8862</v>
+        <v>104902.814</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89017.19319999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.818</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-3720.7449</v>
       </c>
-      <c r="O11" s="1">
-        <v>14030.096</v>
-      </c>
-      <c r="P11" s="1">
-        <v>116310.3601</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0615</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.9701</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6232.9149</v>
       </c>
       <c r="F12" s="1">
         <v>448.2246</v>
       </c>
       <c r="G12" s="1">
-        <v>6681.1395</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>105224.6931</v>
       </c>
       <c r="I12" s="1">
-        <v>106623.6093</v>
+        <v>12603.2417</v>
       </c>
       <c r="J12" s="1">
-        <v>15.9589</v>
+        <v>117827.9348</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96623.6093</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.5022</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7606.4161</v>
       </c>
-      <c r="O12" s="1">
-        <v>16423.68</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129215.3454</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.023</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.9905</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6681.1395</v>
       </c>
       <c r="F13" s="1">
         <v>211.3143</v>
       </c>
       <c r="G13" s="1">
-        <v>6892.4538</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>119573.6901</v>
       </c>
       <c r="I13" s="1">
-        <v>110425.2585</v>
+        <v>14996.8256</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0212</v>
+        <v>134570.5157</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>100425.2585</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.0312</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3801.6492</v>
       </c>
-      <c r="O13" s="1">
-        <v>22622.0307</v>
-      </c>
-      <c r="P13" s="1">
-        <v>145977.6545</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0486</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.2369</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6892.4538</v>
       </c>
       <c r="F14" s="1">
         <v>-6892.4538</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125044.9641</v>
       </c>
       <c r="I14" s="1">
-        <v>110425.2585</v>
+        <v>21195.1764</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0212</v>
+        <v>146240.1405</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>100425.2585</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5703</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>125044.9641</v>
       </c>
-      <c r="O14" s="1">
-        <v>147666.9949</v>
-      </c>
-      <c r="P14" s="1">
-        <v>147666.9949</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0533</v>
+        <v>0.0115</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.4086</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>694.03</v>
       </c>
       <c r="G2" s="1">
-        <v>694.03</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.156000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.4086</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.156000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.9338</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>694.03</v>
       </c>
       <c r="F3" s="1">
         <v>658.9314000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1352.9614</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10310.7172</v>
       </c>
       <c r="I3" s="1">
-        <v>19840.35</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.6644</v>
+        <v>10310.7172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9840.35</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.1786</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9840.35</v>
       </c>
-      <c r="O3" s="1">
-        <v>159.65</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20259.65</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0156</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.9313</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1352.9614</v>
       </c>
       <c r="F4" s="1">
         <v>558.9305000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1911.8918</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21442.6789</v>
       </c>
       <c r="I4" s="1">
-        <v>28744.8388</v>
+        <v>159.65</v>
       </c>
       <c r="J4" s="1">
-        <v>15.0348</v>
+        <v>21602.3289</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18744.8388</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.8547</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8904.488799999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1255.1612</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31556.1612</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0428</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.0207</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1911.8918</v>
       </c>
       <c r="F5" s="1">
         <v>486.115</v>
       </c>
       <c r="G5" s="1">
-        <v>2398.0068</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>32372.9172</v>
       </c>
       <c r="I5" s="1">
-        <v>37018.8555</v>
+        <v>1255.1612</v>
       </c>
       <c r="J5" s="1">
-        <v>15.4373</v>
+        <v>33628.0784</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27018.8555</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.132</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8274.016799999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>2981.1445</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43585.1545</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0488</v>
+        <v>0.0641</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.4608</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2398.0068</v>
       </c>
       <c r="F6" s="1">
         <v>538.6347</v>
       </c>
       <c r="G6" s="1">
-        <v>2936.6415</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41653.8574</v>
       </c>
       <c r="I6" s="1">
-        <v>46423.8486</v>
+        <v>2981.1445</v>
       </c>
       <c r="J6" s="1">
-        <v>15.8085</v>
+        <v>44635.0018</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36423.8486</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.1892</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9404.993</v>
       </c>
-      <c r="O6" s="1">
-        <v>3576.1514</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54586.2015</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0187</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.886</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2936.6415</v>
       </c>
       <c r="F7" s="1">
         <v>725.5992</v>
       </c>
       <c r="G7" s="1">
-        <v>3662.2407</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>49331.1722</v>
       </c>
       <c r="I7" s="1">
-        <v>58676.317</v>
+        <v>3576.1514</v>
       </c>
       <c r="J7" s="1">
-        <v>16.022</v>
+        <v>52907.3236</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48676.317</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5755</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-12252.4684</v>
       </c>
-      <c r="O7" s="1">
-        <v>1323.683</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62843.8336</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.027</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.59</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3662.2407</v>
       </c>
       <c r="F8" s="1">
         <v>460.0621</v>
       </c>
       <c r="G8" s="1">
-        <v>4122.3028</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>64084.8178</v>
       </c>
       <c r="I8" s="1">
-        <v>66768.80899999999</v>
+        <v>1323.683</v>
       </c>
       <c r="J8" s="1">
-        <v>16.197</v>
+        <v>65408.5008</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56768.809</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5011</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8092.492</v>
       </c>
-      <c r="O8" s="1">
-        <v>3231.191</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75366.5432</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0346</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.0121</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4122.3028</v>
       </c>
       <c r="F9" s="1">
         <v>881.3684</v>
       </c>
       <c r="G9" s="1">
-        <v>5003.6712</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>74725.8268</v>
+        <v>61563.2944</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>3231.191</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9883</v>
+        <v>64794.4854</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>16.9808</v>
+      </c>
+      <c r="M9" s="1">
         <v>3.57</v>
       </c>
-      <c r="L9" s="1">
-        <v>13244.9589</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>13.7678</v>
+        <v>11766.7794</v>
       </c>
       <c r="O9" s="1">
-        <v>13244.9589</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87970.78569999999</v>
+        <v>-1464.4116</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0305</v>
+        <v>-0.1408</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.3645</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5003.6712</v>
       </c>
       <c r="F10" s="1">
         <v>1125.6385</v>
       </c>
       <c r="G10" s="1">
-        <v>6129.3097</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>76480.1139</v>
       </c>
       <c r="I10" s="1">
-        <v>97294.87209999999</v>
+        <v>11766.7794</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8737</v>
+        <v>88246.8934</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>87294.87209999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4462</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-17294.8721</v>
       </c>
-      <c r="O10" s="1">
-        <v>5950.0867</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99635.3594</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.017</v>
+        <v>0.1799</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.4953</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>6129.3097</v>
       </c>
       <c r="F11" s="1">
         <v>246.3173</v>
       </c>
       <c r="G11" s="1">
-        <v>6375.6269</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>100580.1331</v>
       </c>
       <c r="I11" s="1">
-        <v>101357.9491</v>
+        <v>4471.9073</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8977</v>
+        <v>105052.0404</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91357.9491</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9051</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4063.077</v>
       </c>
-      <c r="O11" s="1">
-        <v>11887.0097</v>
-      </c>
-      <c r="P11" s="1">
-        <v>116509.1351</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.06270000000000001</v>
+        <v>0.0693</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.9701</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6375.6269</v>
       </c>
       <c r="F12" s="1">
         <v>475.9109</v>
       </c>
       <c r="G12" s="1">
-        <v>6851.5378</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>107633.9716</v>
       </c>
       <c r="I12" s="1">
-        <v>109434.2044</v>
+        <v>10408.8303</v>
       </c>
       <c r="J12" s="1">
-        <v>15.9722</v>
+        <v>118042.8018</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99434.2044</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.596</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8076.2552</v>
       </c>
-      <c r="O12" s="1">
-        <v>13810.7545</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129479.1011</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0235</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.9905</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6851.5378</v>
       </c>
       <c r="F13" s="1">
         <v>234.7679</v>
       </c>
       <c r="G13" s="1">
-        <v>7086.3057</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>122623.3427</v>
       </c>
       <c r="I13" s="1">
-        <v>113657.7957</v>
+        <v>12332.575</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0391</v>
+        <v>134955.9177</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>103657.7957</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.1291</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4223.5913</v>
       </c>
-      <c r="O13" s="1">
-        <v>19587.1632</v>
-      </c>
-      <c r="P13" s="1">
-        <v>146412.1933</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0497</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>18.2369</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7086.3057</v>
       </c>
       <c r="F14" s="1">
         <v>-7086.3057</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128561.8837</v>
       </c>
       <c r="I14" s="1">
-        <v>113657.7957</v>
+        <v>18108.9838</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0391</v>
+        <v>146670.8674</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>103657.7957</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6279</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128561.8837</v>
       </c>
-      <c r="O14" s="1">
-        <v>148149.0469</v>
-      </c>
-      <c r="P14" s="1">
-        <v>148149.0469</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0528</v>
+        <v>0.0118</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.4086</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>694.03</v>
       </c>
       <c r="G2" s="1">
-        <v>694.03</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.156000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.4086</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.156000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.9338</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>694.03</v>
       </c>
       <c r="F3" s="1">
         <v>662.297</v>
       </c>
       <c r="G3" s="1">
-        <v>1356.3269</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10310.7172</v>
       </c>
       <c r="I3" s="1">
-        <v>19890.6108</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.6651</v>
+        <v>10310.7172</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9890.6108</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.251</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9890.6108</v>
       </c>
-      <c r="O3" s="1">
-        <v>109.3892</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20259.3892</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0156</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.9313</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1356.3269</v>
       </c>
       <c r="F4" s="1">
         <v>565.1083</v>
       </c>
       <c r="G4" s="1">
-        <v>1921.4352</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21496.0189</v>
       </c>
       <c r="I4" s="1">
-        <v>28893.5199</v>
+        <v>109.3892</v>
       </c>
       <c r="J4" s="1">
-        <v>15.0375</v>
+        <v>21605.4081</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18893.5199</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.9299</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9002.909100000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1106.4801</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31558.7301</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0429</v>
+        <v>0.06370000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.0207</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1921.4352</v>
       </c>
       <c r="F5" s="1">
         <v>494.5858</v>
       </c>
       <c r="G5" s="1">
-        <v>2416.021</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>32534.5093</v>
       </c>
       <c r="I5" s="1">
-        <v>37311.7162</v>
+        <v>1106.4801</v>
       </c>
       <c r="J5" s="1">
-        <v>15.4435</v>
+        <v>33640.9894</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27311.7162</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.2142</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8418.196400000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>2688.2838</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43597.3175</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0491</v>
+        <v>0.0644</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.4608</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2416.021</v>
       </c>
       <c r="F6" s="1">
         <v>550.1319</v>
       </c>
       <c r="G6" s="1">
-        <v>2966.1529</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>41966.7677</v>
       </c>
       <c r="I6" s="1">
-        <v>46917.4597</v>
+        <v>2688.2838</v>
       </c>
       <c r="J6" s="1">
-        <v>15.8176</v>
+        <v>44655.0515</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36917.4597</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.2803</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9605.7435</v>
       </c>
-      <c r="O6" s="1">
-        <v>3082.5403</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54605.2095</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0188</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.886</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2966.1529</v>
       </c>
       <c r="F7" s="1">
         <v>742.2442</v>
       </c>
       <c r="G7" s="1">
-        <v>3708.3971</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>49826.9196</v>
       </c>
       <c r="I7" s="1">
-        <v>59450.9957</v>
+        <v>3082.5403</v>
       </c>
       <c r="J7" s="1">
-        <v>16.0315</v>
+        <v>52909.4599</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49450.9957</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.6718</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-12533.536</v>
       </c>
-      <c r="O7" s="1">
-        <v>549.0042999999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62844.5136</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0273</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.59</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3708.3971</v>
       </c>
       <c r="F8" s="1">
         <v>476.4579</v>
       </c>
       <c r="G8" s="1">
-        <v>4184.8551</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>64892.4998</v>
       </c>
       <c r="I8" s="1">
-        <v>67831.89079999999</v>
+        <v>549.0042999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>16.2089</v>
+        <v>65441.5041</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57831.8908</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5948</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8380.8951</v>
       </c>
-      <c r="O8" s="1">
-        <v>2168.1092</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75398.0511</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0351</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.0121</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4184.8551</v>
       </c>
       <c r="F9" s="1">
         <v>810.5534</v>
       </c>
       <c r="G9" s="1">
-        <v>4995.4085</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>74602.42969999999</v>
+        <v>62497.4626</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>2168.1092</v>
       </c>
       <c r="J9" s="1">
-        <v>16.0147</v>
+        <v>64665.5718</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>16.727</v>
+      </c>
+      <c r="M9" s="1">
         <v>3.57</v>
       </c>
-      <c r="L9" s="1">
-        <v>13445.9393</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>1277.8302</v>
+        <v>11915.08</v>
       </c>
       <c r="O9" s="1">
-        <v>13445.9393</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>88048.36900000001</v>
+        <v>-253.0292</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.031</v>
+        <v>-0.1428</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.3645</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4995.4085</v>
       </c>
       <c r="F10" s="1">
         <v>1258.734</v>
       </c>
       <c r="G10" s="1">
-        <v>6254.1425</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>76353.8199</v>
       </c>
       <c r="I10" s="1">
-        <v>99339.8181</v>
+        <v>11915.08</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8838</v>
+        <v>88268.8999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>89339.8181</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8844</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-19339.8181</v>
       </c>
-      <c r="O10" s="1">
-        <v>4106.1212</v>
-      </c>
-      <c r="P10" s="1">
-        <v>99699.4381</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0168</v>
+        <v>0.1822</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.4953</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6254.1425</v>
       </c>
       <c r="F11" s="1">
         <v>268.0497</v>
       </c>
       <c r="G11" s="1">
-        <v>6522.1922</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>102628.6018</v>
       </c>
       <c r="I11" s="1">
-        <v>103761.3781</v>
+        <v>2575.2619</v>
       </c>
       <c r="J11" s="1">
-        <v>15.909</v>
+        <v>105203.8637</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93761.3781</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9919</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4421.5599</v>
       </c>
-      <c r="O11" s="1">
-        <v>9684.561299999999</v>
-      </c>
-      <c r="P11" s="1">
-        <v>116711.778</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0639</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.9701</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6522.1922</v>
       </c>
       <c r="F12" s="1">
         <v>504.9327</v>
       </c>
       <c r="G12" s="1">
-        <v>7027.1249</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>110108.3003</v>
       </c>
       <c r="I12" s="1">
-        <v>112330.1368</v>
+        <v>8153.7019</v>
       </c>
       <c r="J12" s="1">
-        <v>15.9852</v>
+        <v>118262.0022</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102330.1368</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.6895</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8568.7588</v>
       </c>
-      <c r="O12" s="1">
-        <v>11115.8025</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129748.4275</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.024</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.9905</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7027.1249</v>
       </c>
       <c r="F13" s="1">
         <v>259.6079</v>
       </c>
       <c r="G13" s="1">
-        <v>7286.7328</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>125765.8594</v>
       </c>
       <c r="I13" s="1">
-        <v>117000.6131</v>
+        <v>9584.9432</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0567</v>
+        <v>135350.8026</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107000.6131</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.2268</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4670.4763</v>
       </c>
-      <c r="O13" s="1">
-        <v>16445.3262</v>
-      </c>
-      <c r="P13" s="1">
-        <v>146857.4405</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0509</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>18.2369</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7286.7328</v>
       </c>
       <c r="F14" s="1">
         <v>-7286.7328</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132198.0925</v>
       </c>
       <c r="I14" s="1">
-        <v>117000.6131</v>
+        <v>14914.4669</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0567</v>
+        <v>147112.5594</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107000.6131</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6843</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>132198.0925</v>
       </c>
-      <c r="O14" s="1">
-        <v>148643.4187</v>
-      </c>
-      <c r="P14" s="1">
-        <v>148643.4187</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0524</v>
+        <v>0.0121</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.1877</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.2986</v>
+        <v>15.0597</v>
       </c>
       <c r="D3" s="1">
-        <v>16.003</v>
+        <v>14.5115</v>
       </c>
       <c r="E3" s="1">
-        <v>16.0212</v>
+        <v>14.5703</v>
       </c>
       <c r="F3" s="1">
-        <v>16.0391</v>
+        <v>14.6279</v>
       </c>
       <c r="G3" s="1">
-        <v>16.0567</v>
+        <v>14.6843</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2594</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2718</v>
+        <v>0.3948</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2558</v>
+        <v>0.3815</v>
       </c>
       <c r="E4" s="3">
-        <v>0.26</v>
+        <v>0.3858</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2642</v>
+        <v>0.3902</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2685</v>
+        <v>0.3946</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2011</v>
       </c>
       <c r="C5" s="3">
-        <v>0.109</v>
+        <v>0.2535</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1076</v>
+        <v>0.239</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1083</v>
+        <v>0.2422</v>
       </c>
       <c r="F5" s="3">
-        <v>0.109</v>
+        <v>0.2454</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1098</v>
+        <v>0.2487</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.1889</v>
       </c>
       <c r="C6" s="4">
-        <v>2.3058</v>
+        <v>1.4776</v>
       </c>
       <c r="D6" s="4">
-        <v>2.1882</v>
+        <v>1.5112</v>
       </c>
       <c r="E6" s="4">
-        <v>2.2124</v>
+        <v>1.509</v>
       </c>
       <c r="F6" s="4">
-        <v>2.2365</v>
+        <v>1.5069</v>
       </c>
       <c r="G6" s="4">
-        <v>2.2606</v>
+        <v>1.5049</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.4968</v>
+        <v>0.2294</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5098</v>
+        <v>0.4779</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5101</v>
+        <v>0.4776</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5105</v>
+        <v>0.4773</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5108</v>
+        <v>0.4771</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>13855.3871</v>
+        <v>12028.7811</v>
       </c>
       <c r="D8" s="1">
-        <v>12852.8813</v>
+        <v>11476.0246</v>
       </c>
       <c r="E8" s="1">
-        <v>13047.2892</v>
+        <v>11620.4349</v>
       </c>
       <c r="F8" s="1">
-        <v>13244.9589</v>
+        <v>11766.7794</v>
       </c>
       <c r="G8" s="1">
-        <v>13445.9393</v>
+        <v>11915.08</v>
       </c>
     </row>
   </sheetData>
